--- a/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D4FB4-0197-4388-B188-97F39850D745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5EA0E-6E35-44DC-8242-77FE958DC938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33105" yWindow="-1650" windowWidth="19200" windowHeight="7890" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>SF:Decarb</t>
   </si>
+  <si>
+    <t>newInstalledCapacity_SF-LvR_48years &amp; 70% Recycled_[MW]</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +218,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="%" xfId="2" xr:uid="{81452E6B-F638-4287-8B73-D95A6C474FC8}"/>
@@ -2128,7 +2138,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>US!$N$2</c:f>
+              <c:f>US!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2253,7 +2263,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>US!$N$4:$N$34</c:f>
+              <c:f>US!$O$4:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2365,7 +2375,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>US!$P$2</c:f>
+              <c:f>US!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2490,7 +2500,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>US!$P$4:$P$34</c:f>
+              <c:f>US!$Q$4:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2602,7 +2612,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>US!$L$2</c:f>
+              <c:f>US!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2727,7 +2737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>US!$L$4:$L$34</c:f>
+              <c:f>US!$M$4:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4259,16 +4269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>136523</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4593,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BB4D31-3979-4EF5-B9D0-3C27811932A1}">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L4" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4611,17 +4621,18 @@
     <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="10"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.08984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4641,25 +4652,28 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -4676,26 +4690,29 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="10">
+        <v>1200.6513499999901</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4729,35 +4746,38 @@
       <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="10">
+        <v>2534.3001088300002</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -4796,49 +4816,52 @@
         <f>I4*1000</f>
         <v>131000</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="10">
+        <v>2534.3001088300002</v>
+      </c>
+      <c r="M4" s="4">
         <v>24357.209300999999</v>
       </c>
-      <c r="M4" s="4">
-        <f>L4</f>
+      <c r="N4" s="4">
+        <f>M4</f>
         <v>24357.209300999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>16904.81495</v>
       </c>
-      <c r="O4" s="4">
-        <f>P4</f>
+      <c r="P4" s="4">
+        <f>Q4</f>
         <v>24541.297636124898</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>24541.297636124898</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>109.34884326025184</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>32.144301193814862</v>
-      </c>
-      <c r="S4" s="4">
-        <f>Q4*1000</f>
-        <v>109348.84326025184</v>
       </c>
       <c r="T4" s="4">
         <f>R4*1000</f>
+        <v>109348.84326025184</v>
+      </c>
+      <c r="U4" s="4">
+        <f>S4*1000</f>
         <v>32144.301193814863</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4874,52 +4897,55 @@
         <f t="shared" ref="K5:K34" si="2">I5*1000</f>
         <v>154000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="10">
+        <v>5123.0323208</v>
+      </c>
+      <c r="M5" s="4">
         <v>26212.676668874999</v>
       </c>
-      <c r="M5" s="4">
-        <f>L5+M4</f>
+      <c r="N5" s="4">
+        <f>M5+N4</f>
         <v>50569.885969875002</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>4479.8336680000002</v>
       </c>
-      <c r="O5" s="4">
-        <f>O4+P5</f>
+      <c r="P5" s="4">
+        <f>P4+Q5</f>
         <v>51089.249740244893</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>26547.952104119999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>154.66588016534524</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>45.317036905093389</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" ref="S5:S34" si="3">Q5*1000</f>
+      <c r="T5" s="4">
+        <f t="shared" ref="T5:T34" si="3">R5*1000</f>
         <v>154665.88016534524</v>
       </c>
-      <c r="T5" s="4">
-        <f t="shared" ref="T5:T34" si="4">R5*1000</f>
+      <c r="U5" s="4">
+        <f t="shared" ref="U5:U34" si="4">S5*1000</f>
         <v>45317.036905093388</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>2018</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>16.795572727272699</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>37.128700161271297</v>
       </c>
-      <c r="X5">
-        <f>W5+V5</f>
+      <c r="Y5">
+        <f>X5+W5</f>
         <v>53.924272888543996</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4955,52 +4981,55 @@
         <f t="shared" si="2"/>
         <v>177000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="10">
+        <v>5123.0323208</v>
+      </c>
+      <c r="M6" s="4">
         <v>26212.676668874999</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6:M34" si="7">L6+M5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N34" si="7">M6+N5</f>
         <v>76782.562638750009</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>4479.8336680000002</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6:O34" si="8">O5+P6</f>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6:P34" si="8">P5+Q6</f>
         <v>77637.201844364899</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>26547.952104119999</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>199.98291707043865</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>45.317036905093389</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="3"/>
         <v>199982.91707043865</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="4"/>
         <v>45317.036905093388</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>2020</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>20.908446363636401</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>62.7384416488865</v>
       </c>
-      <c r="X6" s="4">
-        <f t="shared" ref="X6:X21" si="9">W6+V6</f>
+      <c r="Y6" s="4">
+        <f t="shared" ref="Y6:Y21" si="9">X6+W6</f>
         <v>83.646888012522908</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -5036,52 +5065,55 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="10">
+        <v>9477.5425046749897</v>
+      </c>
+      <c r="M7" s="4">
         <v>56235.450684809999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <f t="shared" si="7"/>
         <v>133018.01332356001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>13634.589690000001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <f t="shared" si="8"/>
         <v>129318.71590921489</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>51681.514064850002</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>243.59497327024275</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>43.612056199804094</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="3"/>
         <v>243594.97327024274</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="4"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <v>2022</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>25.792741818181799</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>99.616469391052505</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="9"/>
         <v>125.4092112092343</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -5117,52 +5149,55 @@
         <f t="shared" si="2"/>
         <v>223000</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="10">
+        <v>9477.5425046749897</v>
+      </c>
+      <c r="M8" s="4">
         <v>56235.450684809999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <f t="shared" si="7"/>
         <v>189253.46400837001</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>13634.589690000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="8"/>
         <v>181000.22997406489</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>51681.514064850002</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>287.20702947004685</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>43.612056199804094</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="3"/>
         <v>287207.02947004687</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="4"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>2024</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>30.935123636363599</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>134.733147399925</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="9"/>
         <v>165.66827103628862</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -5201,52 +5236,55 @@
         <f t="shared" si="2"/>
         <v>249000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="10">
+        <v>9156.77890338</v>
+      </c>
+      <c r="M9" s="4">
         <v>104575.80603822001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <f t="shared" si="7"/>
         <v>293829.27004659001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>28006.32474</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="8"/>
         <v>287557.42728977988</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>106557.19731571501</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>323.3020449772543</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>36.095015507207471</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="3"/>
         <v>323302.04497725429</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="4"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>2026</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>37.526330000000002</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>161.821145189253</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="9"/>
         <v>199.347475189253</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -5282,52 +5320,55 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="10">
+        <v>9156.77890338</v>
+      </c>
+      <c r="M10" s="4">
         <v>104575.80603822001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <f t="shared" si="7"/>
         <v>398405.07608481002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>28006.32474</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <f t="shared" si="8"/>
         <v>394114.6246054949</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>106557.19731571501</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>359.39706048446175</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>36.095015507207471</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="3"/>
         <v>359397.06048446172</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="4"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <v>2028</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>45.875010909090904</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>207.33235988875199</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="9"/>
         <v>253.20737079784288</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -5363,52 +5404,55 @@
         <f t="shared" si="2"/>
         <v>301000</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="10">
+        <v>16995.842998244902</v>
+      </c>
+      <c r="M11" s="4">
         <v>130839.73365497999</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <f t="shared" si="7"/>
         <v>529244.80973979004</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>26628.140380000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <f t="shared" si="8"/>
         <v>544768.42380872986</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>150653.79920323499</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>417.49296937740814</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>58.09590889294639</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
         <v>417492.96937740815</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="4"/>
         <v>58095.908892946391</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <v>2030</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>56.131709999999998</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>290.50558331976799</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="9"/>
         <v>346.63729331976799</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -5444,52 +5488,55 @@
         <f t="shared" si="2"/>
         <v>327000</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="10">
+        <v>16995.842998244902</v>
+      </c>
+      <c r="M12" s="4">
         <v>130839.73365497999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <f t="shared" si="7"/>
         <v>660084.54339477001</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>26628.140380000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <f t="shared" si="8"/>
         <v>695422.22301196482</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>150653.79920323499</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>475.58887827035454</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>58.095908892946397</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
         <v>475588.87827035453</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="4"/>
         <v>58095.908892946398</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <v>2032</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>67.492456363636407</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>403.33153664398401</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="9"/>
         <v>470.8239930076204</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -5525,52 +5572,55 @@
         <f t="shared" si="2"/>
         <v>353000</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="10">
+        <v>4723.5930226999899</v>
+      </c>
+      <c r="M13" s="4">
         <v>168637.06570335</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <f t="shared" si="7"/>
         <v>828721.60909812001</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>44459.751210000002</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <f t="shared" si="8"/>
         <v>902924.32108879485</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>207502.09807683001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>577.08530381162723</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>101.49642554127267</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="3"/>
         <v>577085.30381162721</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="4"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>2034</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>80.480386363636399</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>485.16087153802999</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="9"/>
         <v>565.64125790166645</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -5609,52 +5659,55 @@
         <f t="shared" si="2"/>
         <v>383000</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="10">
+        <v>4723.5930226999899</v>
+      </c>
+      <c r="M14" s="4">
         <v>168637.06570335</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <f t="shared" si="7"/>
         <v>997358.67480147001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>44459.751210000002</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <f t="shared" si="8"/>
         <v>1110426.4191656248</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>207502.09807683001</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>678.58172935289986</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>101.49642554127267</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="3"/>
         <v>678581.72935289983</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="4"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>2036</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>95.322164545454498</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>524.56542997676604</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="9"/>
         <v>619.88759452222052</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -5690,52 +5743,55 @@
         <f t="shared" si="2"/>
         <v>413000</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="10">
+        <v>34173.144328415001</v>
+      </c>
+      <c r="M15" s="4">
         <v>191914.82389026001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <f t="shared" si="7"/>
         <v>1189273.49869173</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>12957.18735</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <f t="shared" si="8"/>
         <v>1350270.8254928698</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>239844.406327245</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>813.87670562615858</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>135.29497627325875</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="3"/>
         <v>813876.70562615863</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="4"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>2038</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>111.444223636364</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>582.11597042682502</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="9"/>
         <v>693.56019406318899</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -5771,52 +5827,55 @@
         <f t="shared" si="2"/>
         <v>443000</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="10">
+        <v>34173.144328415001</v>
+      </c>
+      <c r="M16" s="4">
         <v>191914.82389026001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <f t="shared" si="7"/>
         <v>1381188.3225819899</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>12957.18735</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <f t="shared" si="8"/>
         <v>1590115.2318201149</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>239844.406327245</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>949.17168189941731</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>135.29497627325875</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="3"/>
         <v>949171.68189941731</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="4"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <v>2040</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <v>127.604308181818</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>593.87906054333405</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="9"/>
         <v>721.4833687251521</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -5852,52 +5911,55 @@
         <f t="shared" si="2"/>
         <v>473000</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="10">
+        <v>73232.04575818</v>
+      </c>
+      <c r="M17" s="4">
         <v>228720.87846410999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <f t="shared" si="7"/>
         <v>1609909.2010460999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>11610.688529999999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <f t="shared" si="8"/>
         <v>1904802.1555965438</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>314686.92377642897</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1051.7368115073382</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>102.56512960792081</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="3"/>
         <v>1051736.8115073382</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="4"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>2042</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>139.236943636364</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>639.29218521486405</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <f t="shared" si="9"/>
         <v>778.52912885122805</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -5933,52 +5995,55 @@
         <f t="shared" si="2"/>
         <v>503000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="10">
+        <v>73232.04575818</v>
+      </c>
+      <c r="M18" s="4">
         <v>228720.87846410999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <f t="shared" si="7"/>
         <v>1838630.0795102098</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>11610.688529999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <f t="shared" si="8"/>
         <v>2219489.0793729727</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>314686.92377642897</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1154.3019411152591</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>102.56512960792081</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="3"/>
         <v>1154301.941115259</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="4"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>2044</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>148.088826363636</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>682.98325261898503</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <f t="shared" si="9"/>
         <v>831.07207898262106</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -6017,52 +6082,55 @@
         <f t="shared" si="2"/>
         <v>528000</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="10">
+        <v>61963.949007384901</v>
+      </c>
+      <c r="M19" s="4">
         <v>277900.11641790002</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <f t="shared" si="7"/>
         <v>2116530.1959281098</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>12365.75409</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <f t="shared" si="8"/>
         <v>2600553.9093341376</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>381064.82996116497</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>1211.7210407900623</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>57.419099674803256</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="3"/>
         <v>1211721.0407900622</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="4"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>2046</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>155.33214272727301</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>741.40792082883002</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <f t="shared" si="9"/>
         <v>896.740063556103</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -6098,52 +6166,55 @@
         <f t="shared" si="2"/>
         <v>553000</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="10">
+        <v>61963.949007384901</v>
+      </c>
+      <c r="M20" s="4">
         <v>277900.11641790002</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <f t="shared" si="7"/>
         <v>2394430.31234601</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>12365.75409</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <f t="shared" si="8"/>
         <v>2981618.7392953024</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>381064.82996116497</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1269.1401404648655</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>57.419099674803256</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="3"/>
         <v>1269140.1404648654</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="4"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <v>2048</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <v>161.52204727272701</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>823.134117188196</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <f t="shared" si="9"/>
         <v>984.65616446092304</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -6179,52 +6250,55 @@
         <f t="shared" si="2"/>
         <v>578000</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="10">
+        <v>81314.849570864899</v>
+      </c>
+      <c r="M21" s="4">
         <v>294943.91562346398</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <f t="shared" si="7"/>
         <v>2689374.2279694742</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>21040.88463</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <f t="shared" si="8"/>
         <v>3406059.1845434522</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>424440.44524814998</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1347.807612912181</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>78.667472447315561</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="3"/>
         <v>1347807.6129121811</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="4"/>
         <v>78667.472447315566</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>2050</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <v>167.21188818181801</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>907.75283817318802</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="9"/>
         <v>1074.964726355006</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -6260,39 +6334,42 @@
         <f t="shared" si="2"/>
         <v>603000</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="10">
+        <v>81314.849570864899</v>
+      </c>
+      <c r="M22" s="4">
         <v>294943.91562346398</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <f t="shared" si="7"/>
         <v>2984318.1435929383</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>21040.88463</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <f t="shared" si="8"/>
         <v>3830499.629791602</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>424440.44524814998</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1426.4750853594965</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>78.667472447315561</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="3"/>
         <v>1426475.0853594965</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="4"/>
         <v>78667.472447315566</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2039</v>
       </c>
@@ -6328,39 +6405,42 @@
         <f t="shared" si="2"/>
         <v>628000</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="10">
+        <v>49200.342204749897</v>
+      </c>
+      <c r="M23" s="4">
         <v>297685.38764140499</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <f t="shared" si="7"/>
         <v>3282003.5312343435</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>20625.094010000001</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <f t="shared" si="8"/>
         <v>4261851.9005532423</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>431352.27076163999</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1454.5829789882384</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>28.107893628741969</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="3"/>
         <v>1454582.9789882384</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="4"/>
         <v>28107.893628741971</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -6399,39 +6479,42 @@
         <f t="shared" si="2"/>
         <v>661000</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="10">
+        <v>49200.342204749897</v>
+      </c>
+      <c r="M24" s="4">
         <v>297685.38764140499</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <f t="shared" si="7"/>
         <v>3579688.9188757483</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>20625.094010000001</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <f t="shared" si="8"/>
         <v>4693204.1713148821</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>431352.27076163999</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1482.6908726169804</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>28.107893628741969</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="3"/>
         <v>1482690.8726169805</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="4"/>
         <v>28107.893628741971</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2041</v>
       </c>
@@ -6467,39 +6550,42 @@
         <f t="shared" si="2"/>
         <v>694000</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="10">
+        <v>100734.892095405</v>
+      </c>
+      <c r="M25" s="4">
         <v>300199.67590162501</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <f t="shared" si="7"/>
         <v>3879888.5947773731</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>18778.534319999999</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <f t="shared" si="8"/>
         <v>5148890.9805081869</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>455686.80919330497</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1543.7488895290217</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>61.058016912041161</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="3"/>
         <v>1543748.8895290217</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="4"/>
         <v>61058.016912041159</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2042</v>
       </c>
@@ -6535,39 +6621,42 @@
         <f t="shared" si="2"/>
         <v>727000</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="10">
+        <v>100734.892095405</v>
+      </c>
+      <c r="M26" s="4">
         <v>300199.67590162501</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <f t="shared" si="7"/>
         <v>4180088.270678998</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>18778.534319999999</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <f t="shared" si="8"/>
         <v>5604577.7897014916</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>455686.80919330497</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1604.8069064410629</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>61.058016912041161</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="3"/>
         <v>1604806.9064410629</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="4"/>
         <v>61058.016912041159</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2043</v>
       </c>
@@ -6603,39 +6692,42 @@
         <f t="shared" si="2"/>
         <v>760000</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="10">
+        <v>89886.844265459993</v>
+      </c>
+      <c r="M27" s="4">
         <v>304181.48045198998</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <f t="shared" si="7"/>
         <v>4484269.7511309879</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>34424.36131</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <f t="shared" si="8"/>
         <v>6089038.5438443366</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>484460.75414284499</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1661.362046272616</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>56.555139831553007</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="3"/>
         <v>1661362.0462726159</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="4"/>
         <v>56555.13983155301</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2044</v>
       </c>
@@ -6671,39 +6763,42 @@
         <f t="shared" si="2"/>
         <v>793000</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="10">
+        <v>89886.844265459993</v>
+      </c>
+      <c r="M28" s="4">
         <v>304181.48045198998</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <f t="shared" si="7"/>
         <v>4788451.2315829778</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>34424.36131</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <f t="shared" si="8"/>
         <v>6573499.2979871817</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>484460.75414284499</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1717.9171861041691</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>56.555139831553007</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="3"/>
         <v>1717917.1861041691</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="4"/>
         <v>56555.13983155301</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2045</v>
       </c>
@@ -6742,39 +6837,42 @@
         <f t="shared" si="2"/>
         <v>843000</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="10">
+        <v>59996.065785355</v>
+      </c>
+      <c r="M29" s="4">
         <v>315180.67400555999</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <f t="shared" si="7"/>
         <v>5103631.9055885375</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>26837.67265</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <f t="shared" si="8"/>
         <v>7105736.1367895212</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>532236.83880233904</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1789.2489452760483</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>71.331759171879298</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="3"/>
         <v>1789248.9452760483</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="4"/>
         <v>71331.759171879297</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2046</v>
       </c>
@@ -6810,39 +6908,42 @@
         <f t="shared" si="2"/>
         <v>893000</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="10">
+        <v>59996.065785355</v>
+      </c>
+      <c r="M30" s="4">
         <v>315180.67400555999</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <f t="shared" si="7"/>
         <v>5418812.5795940971</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>26837.67265</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <f t="shared" si="8"/>
         <v>7637972.9755918607</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>532236.83880233904</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1860.5807044479275</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>71.331759171879298</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="3"/>
         <v>1860580.7044479274</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="4"/>
         <v>71331.759171879297</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2047</v>
       </c>
@@ -6878,39 +6979,42 @@
         <f t="shared" si="2"/>
         <v>943000</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="10">
+        <v>13613.503684884899</v>
+      </c>
+      <c r="M31" s="4">
         <v>348105.27423733397</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <f t="shared" si="7"/>
         <v>5766917.8538314309</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>42306.236149999997</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <f t="shared" si="8"/>
         <v>8195393.6618720805</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>557420.68628022005</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1956.6757121750263</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>96.095007727098903</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="3"/>
         <v>1956675.7121750263</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="4"/>
         <v>96095.007727098899</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2048</v>
       </c>
@@ -6946,39 +7050,42 @@
         <f t="shared" si="2"/>
         <v>993000</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="10">
+        <v>13613.503684884899</v>
+      </c>
+      <c r="M32" s="4">
         <v>348105.27423733397</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <f t="shared" si="7"/>
         <v>6115023.1280687647</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>42306.236149999997</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <f t="shared" si="8"/>
         <v>8752814.3481523003</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>557420.68628022005</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2052.7707199021252</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>96.095007727098903</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="3"/>
         <v>2052770.7199021252</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="4"/>
         <v>96095.007727098899</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2049</v>
       </c>
@@ -7014,39 +7121,42 @@
         <f t="shared" si="2"/>
         <v>1043000</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="10">
+        <v>36887.263406979997</v>
+      </c>
+      <c r="M33" s="4">
         <v>358802.79033668898</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <f t="shared" si="7"/>
         <v>6473825.9184054537</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>29545.326880000001</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <f t="shared" si="8"/>
         <v>9349738.8529281411</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>596924.50477583997</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2151.5944078405414</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>98.823687938416271</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="3"/>
         <v>2151594.4078405416</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="4"/>
         <v>98823.687938416275</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2050</v>
       </c>
@@ -7085,39 +7195,42 @@
         <f t="shared" si="2"/>
         <v>1093000</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="10">
+        <v>36887.263406979997</v>
+      </c>
+      <c r="M34" s="4">
         <v>358802.79033668898</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <f t="shared" si="7"/>
         <v>6832628.7087421427</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>29545.326880000001</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <f t="shared" si="8"/>
         <v>9946663.3577039819</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <v>596924.50477583997</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>2250.4180957789576</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>98.823687938416271</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <f t="shared" si="3"/>
         <v>2250418.0957789575</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <f t="shared" si="4"/>
         <v>98823.687938416275</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2051</v>
       </c>
@@ -7126,12 +7239,15 @@
         <v>1671.5511811464301</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="M35" s="4">
-        <f>M34/1000</f>
+      <c r="L35" s="10">
+        <v>44331.142776660003</v>
+      </c>
+      <c r="N35" s="4">
+        <f>N34/1000</f>
         <v>6832.6287087421424</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2052</v>
       </c>
@@ -7140,64 +7256,85 @@
         <v>1392.9593176220251</v>
       </c>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L36" s="10">
+        <v>44331.142776660003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2053</v>
       </c>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L37" s="10">
+        <v>71991.796050289995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2054</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L38" s="10">
+        <v>71991.796050289995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2055</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L39" s="10">
+        <v>42648.336863960001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2056</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L40" s="10">
+        <v>42648.336863960001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2057</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L41" s="10">
+        <v>69993.457237224895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2058</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L42" s="10">
+        <v>69993.457237224895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2059</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2060</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2061</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2062</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2063</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2064</v>
       </c>
@@ -7386,9 +7523,9 @@
   <mergeCells count="5">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="R1:Y1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5EA0E-6E35-44DC-8242-77FE958DC938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A769BC-A3B0-43D6-95F7-11F5B7A66DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
+    <workbookView xWindow="30960" yWindow="2160" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t>newInstalledCapacity_SF-LvR_48years &amp; 70% Recycled_[MW]</t>
   </si>
+  <si>
+    <t>https://irena.org/Statistics/View-Data-by-Topic/Energy-Transition/REmap-Energy-Generation-and-Capacity</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +246,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +258,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -264,7 +268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="%" xfId="2" xr:uid="{81452E6B-F638-4287-8B73-D95A6C474FC8}"/>
@@ -4605,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BB4D31-3979-4EF5-B9D0-3C27811932A1}">
   <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -4621,7 +4627,7 @@
     <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="10"/>
+    <col min="12" max="12" width="8.7265625" style="7"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.81640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -4636,42 +4642,42 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="10" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="8" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -4690,7 +4696,7 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <v>1200.6513499999901</v>
       </c>
       <c r="M2" t="s">
@@ -4746,7 +4752,7 @@
       <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <v>2534.3001088300002</v>
       </c>
       <c r="M3" t="s">
@@ -4816,7 +4822,7 @@
         <f>I4*1000</f>
         <v>131000</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>2534.3001088300002</v>
       </c>
       <c r="M4" s="4">
@@ -4897,7 +4903,7 @@
         <f t="shared" ref="K5:K34" si="2">I5*1000</f>
         <v>154000</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>5123.0323208</v>
       </c>
       <c r="M5" s="4">
@@ -4981,7 +4987,7 @@
         <f t="shared" si="2"/>
         <v>177000</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <v>5123.0323208</v>
       </c>
       <c r="M6" s="4">
@@ -5065,7 +5071,7 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>9477.5425046749897</v>
       </c>
       <c r="M7" s="4">
@@ -5149,7 +5155,7 @@
         <f t="shared" si="2"/>
         <v>223000</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>9477.5425046749897</v>
       </c>
       <c r="M8" s="4">
@@ -5236,7 +5242,7 @@
         <f t="shared" si="2"/>
         <v>249000</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>9156.77890338</v>
       </c>
       <c r="M9" s="4">
@@ -5320,7 +5326,7 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <v>9156.77890338</v>
       </c>
       <c r="M10" s="4">
@@ -5404,7 +5410,7 @@
         <f t="shared" si="2"/>
         <v>301000</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>16995.842998244902</v>
       </c>
       <c r="M11" s="4">
@@ -5488,7 +5494,7 @@
         <f t="shared" si="2"/>
         <v>327000</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>16995.842998244902</v>
       </c>
       <c r="M12" s="4">
@@ -5572,7 +5578,7 @@
         <f t="shared" si="2"/>
         <v>353000</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <v>4723.5930226999899</v>
       </c>
       <c r="M13" s="4">
@@ -5659,7 +5665,7 @@
         <f t="shared" si="2"/>
         <v>383000</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="7">
         <v>4723.5930226999899</v>
       </c>
       <c r="M14" s="4">
@@ -5743,7 +5749,7 @@
         <f t="shared" si="2"/>
         <v>413000</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="7">
         <v>34173.144328415001</v>
       </c>
       <c r="M15" s="4">
@@ -5827,7 +5833,7 @@
         <f t="shared" si="2"/>
         <v>443000</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="7">
         <v>34173.144328415001</v>
       </c>
       <c r="M16" s="4">
@@ -5911,7 +5917,7 @@
         <f t="shared" si="2"/>
         <v>473000</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>73232.04575818</v>
       </c>
       <c r="M17" s="4">
@@ -5995,7 +6001,7 @@
         <f t="shared" si="2"/>
         <v>503000</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="7">
         <v>73232.04575818</v>
       </c>
       <c r="M18" s="4">
@@ -6082,7 +6088,7 @@
         <f t="shared" si="2"/>
         <v>528000</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="7">
         <v>61963.949007384901</v>
       </c>
       <c r="M19" s="4">
@@ -6166,7 +6172,7 @@
         <f t="shared" si="2"/>
         <v>553000</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>61963.949007384901</v>
       </c>
       <c r="M20" s="4">
@@ -6250,7 +6256,7 @@
         <f t="shared" si="2"/>
         <v>578000</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="7">
         <v>81314.849570864899</v>
       </c>
       <c r="M21" s="4">
@@ -6334,7 +6340,7 @@
         <f t="shared" si="2"/>
         <v>603000</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>81314.849570864899</v>
       </c>
       <c r="M22" s="4">
@@ -6405,7 +6411,7 @@
         <f t="shared" si="2"/>
         <v>628000</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>49200.342204749897</v>
       </c>
       <c r="M23" s="4">
@@ -6479,7 +6485,7 @@
         <f t="shared" si="2"/>
         <v>661000</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>49200.342204749897</v>
       </c>
       <c r="M24" s="4">
@@ -6550,7 +6556,7 @@
         <f t="shared" si="2"/>
         <v>694000</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="7">
         <v>100734.892095405</v>
       </c>
       <c r="M25" s="4">
@@ -6621,7 +6627,7 @@
         <f t="shared" si="2"/>
         <v>727000</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="7">
         <v>100734.892095405</v>
       </c>
       <c r="M26" s="4">
@@ -6692,7 +6698,7 @@
         <f t="shared" si="2"/>
         <v>760000</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="7">
         <v>89886.844265459993</v>
       </c>
       <c r="M27" s="4">
@@ -6763,7 +6769,7 @@
         <f t="shared" si="2"/>
         <v>793000</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="7">
         <v>89886.844265459993</v>
       </c>
       <c r="M28" s="4">
@@ -6837,7 +6843,7 @@
         <f t="shared" si="2"/>
         <v>843000</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="7">
         <v>59996.065785355</v>
       </c>
       <c r="M29" s="4">
@@ -6908,7 +6914,7 @@
         <f t="shared" si="2"/>
         <v>893000</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="7">
         <v>59996.065785355</v>
       </c>
       <c r="M30" s="4">
@@ -6979,7 +6985,7 @@
         <f t="shared" si="2"/>
         <v>943000</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="7">
         <v>13613.503684884899</v>
       </c>
       <c r="M31" s="4">
@@ -7050,7 +7056,7 @@
         <f t="shared" si="2"/>
         <v>993000</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="7">
         <v>13613.503684884899</v>
       </c>
       <c r="M32" s="4">
@@ -7121,7 +7127,7 @@
         <f t="shared" si="2"/>
         <v>1043000</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="7">
         <v>36887.263406979997</v>
       </c>
       <c r="M33" s="4">
@@ -7195,7 +7201,7 @@
         <f t="shared" si="2"/>
         <v>1093000</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="7">
         <v>36887.263406979997</v>
       </c>
       <c r="M34" s="4">
@@ -7239,7 +7245,7 @@
         <v>1671.5511811464301</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="L35" s="10">
+      <c r="L35" s="7">
         <v>44331.142776660003</v>
       </c>
       <c r="N35" s="4">
@@ -7256,7 +7262,7 @@
         <v>1392.9593176220251</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="L36" s="10">
+      <c r="L36" s="7">
         <v>44331.142776660003</v>
       </c>
     </row>
@@ -7265,7 +7271,7 @@
         <v>2053</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="L37" s="10">
+      <c r="L37" s="7">
         <v>71991.796050289995</v>
       </c>
     </row>
@@ -7273,7 +7279,7 @@
       <c r="A38">
         <v>2054</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="7">
         <v>71991.796050289995</v>
       </c>
     </row>
@@ -7281,7 +7287,7 @@
       <c r="A39">
         <v>2055</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="7">
         <v>42648.336863960001</v>
       </c>
     </row>
@@ -7289,7 +7295,7 @@
       <c r="A40">
         <v>2056</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="7">
         <v>42648.336863960001</v>
       </c>
     </row>
@@ -7297,7 +7303,7 @@
       <c r="A41">
         <v>2057</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="7">
         <v>69993.457237224895</v>
       </c>
     </row>
@@ -7305,7 +7311,7 @@
       <c r="A42">
         <v>2058</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="7">
         <v>69993.457237224895</v>
       </c>
     </row>
@@ -7537,8 +7543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B749E6-E878-4161-8BD8-61B2A1558660}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7546,34 +7553,39 @@
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="10"/>
       <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="F2"/>
       <c r="H2" s="4" t="s">

--- a/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A769BC-A3B0-43D6-95F7-11F5B7A66DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4DA98-A4C1-4C13-B271-DB878DE798CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="2160" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
@@ -260,6 +260,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="6" applyAlignment="1">
@@ -267,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4642,42 +4642,42 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="9" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -7545,7 +7545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7565,25 +7565,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="5"/>

--- a/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4DA98-A4C1-4C13-B271-DB878DE798CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D74F20-CAAD-43F3-BDB3-EBF634516BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="6" r:id="rId2"/>
+    <sheet name="2050to2100Estimates" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -150,15 +151,32 @@
   <si>
     <t>https://irena.org/Statistics/View-Data-by-Topic/Energy-Transition/REmap-Energy-Generation-and-Capacity</t>
   </si>
+  <si>
+    <t>Haegel et al 2021, World Electricity Trend</t>
+  </si>
+  <si>
+    <t>slope = 0.624x</t>
+  </si>
+  <si>
+    <t>Haegel et al 2021, World Energy Consumption Trend</t>
+  </si>
+  <si>
+    <t>slope = 1.532x</t>
+  </si>
+  <si>
+    <t>PWhr/yr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +213,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="6">
@@ -246,14 +269,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,6 +284,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -271,6 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="%" xfId="2" xr:uid="{81452E6B-F638-4287-8B73-D95A6C474FC8}"/>
@@ -3123,6 +3154,662 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.609016024451307E-2"/>
+                  <c:y val="3.1990740740740743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2000.0848697413501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019.73455933379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2049.3986439597102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.3316953316953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.732186732186701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.995085995085901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF90-4BC0-BFC7-C5EC80200B40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="643440768"/>
+        <c:axId val="643435848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="643440768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643435848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="643435848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643440768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1952226164654844E-2"/>
+                  <c:y val="-2.9197080291970802E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2000.2358534801201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018.9179811317199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2049.80845696494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023.5886302680101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.162162162162105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.970515970515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.82063882063801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.226044226044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB2A-459B-A754-1BC2227F5088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652432808"/>
+        <c:axId val="652432480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652432808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652432480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652432480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652432808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3203,6 +3890,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3720,6 +4487,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4292,6 +6091,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62798160-9A37-4E9B-BB20-85F3362CCAF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77ECDB08-6095-615A-3CF2-90E70DFD331D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4695C3D8-A9B4-43B7-73FC-DAA6F53D0890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,123 +6491,121 @@
       <selection activeCell="L4" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="7"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="6"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
     <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.08984375" style="4" customWidth="1"/>
+    <col min="20" max="21" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="29" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>1200.6513499999901</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
@@ -4746,19 +6620,19 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>2534.3001088300002</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
       <c r="O3" t="s">
@@ -4767,7 +6641,7 @@
       <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
       <c r="R3" t="s">
@@ -4776,14 +6650,14 @@
       <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="3" customFormat="1">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -4822,59 +6696,59 @@
         <f>I4*1000</f>
         <v>131000</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>2534.3001088300002</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>24357.209300999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <f>M4</f>
         <v>24357.209300999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>16904.81495</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <f>Q4</f>
         <v>24541.297636124898</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>24541.297636124898</v>
       </c>
       <c r="R4" s="3">
         <v>109.34884326025184</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>32.144301193814862</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <f>R4*1000</f>
         <v>109348.84326025184</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4">
         <f>S4*1000</f>
         <v>32144.301193814863</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" t="s">
         <v>25</v>
       </c>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5">
         <v>113930.356176437</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>34309.524109999998</v>
       </c>
       <c r="D5">
@@ -4888,7 +6762,7 @@
       <c r="F5">
         <v>23</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>23</v>
       </c>
       <c r="I5">
@@ -4903,47 +6777,47 @@
         <f t="shared" ref="K5:K34" si="2">I5*1000</f>
         <v>154000</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>5123.0323208</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>26212.676668874999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <f>M5+N4</f>
         <v>50569.885969875002</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>4479.8336680000002</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <f>P4+Q5</f>
         <v>51089.249740244893</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>26547.952104119999</v>
       </c>
       <c r="R5">
         <v>154.66588016534524</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>45.317036905093389</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <f t="shared" ref="T5:T34" si="3">R5*1000</f>
         <v>154665.88016534524</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5">
         <f t="shared" ref="U5:U34" si="4">S5*1000</f>
         <v>45317.036905093388</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>2018</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5">
         <v>16.795572727272699</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5">
         <v>37.128700161271297</v>
       </c>
       <c r="Y5">
@@ -4951,17 +6825,17 @@
         <v>53.924272888543996</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6">
         <v>148239.88028643699</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>34309.524109999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <f t="shared" ref="D6:D33" si="5">D5+E5</f>
         <v>142109</v>
       </c>
@@ -4972,10 +6846,10 @@
       <c r="F6">
         <v>23</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>23</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <f t="shared" ref="I6:I34" si="6">I5+H6</f>
         <v>177</v>
       </c>
@@ -4987,65 +6861,65 @@
         <f t="shared" si="2"/>
         <v>177000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>5123.0323208</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>26212.676668874999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <f t="shared" ref="N6:N34" si="7">M6+N5</f>
         <v>76782.562638750009</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>4479.8336680000002</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <f t="shared" ref="P6:P34" si="8">P5+Q6</f>
         <v>77637.201844364899</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6">
         <v>26547.952104119999</v>
       </c>
       <c r="R6">
         <v>199.98291707043865</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>45.317036905093389</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6">
         <f t="shared" si="3"/>
         <v>199982.91707043865</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6">
         <f t="shared" si="4"/>
         <v>45317.036905093388</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>2020</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6">
         <v>20.908446363636401</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6">
         <v>62.7384416488865</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6">
         <f t="shared" ref="Y6:Y21" si="9">X6+W6</f>
         <v>83.646888012522908</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7">
         <v>172476.296256437</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>24236.415969999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <f t="shared" si="5"/>
         <v>165109</v>
       </c>
@@ -5056,10 +6930,10 @@
       <c r="F7">
         <v>23</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -5071,65 +6945,65 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>9477.5425046749897</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>56235.450684809999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <f t="shared" si="7"/>
         <v>133018.01332356001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>13634.589690000001</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <f t="shared" si="8"/>
         <v>129318.71590921489</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>51681.514064850002</v>
       </c>
       <c r="R7">
         <v>243.59497327024275</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>43.612056199804094</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <f t="shared" si="3"/>
         <v>243594.97327024274</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7">
         <f t="shared" si="4"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7">
         <v>2022</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7">
         <v>25.792741818181799</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7">
         <v>99.616469391052505</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7">
         <f t="shared" si="9"/>
         <v>125.4092112092343</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
         <v>196712.712226437</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>24236.415969999998</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <f t="shared" si="5"/>
         <v>188109</v>
       </c>
@@ -5140,10 +7014,10 @@
       <c r="F8">
         <v>23</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <f t="shared" si="6"/>
         <v>223</v>
       </c>
@@ -5155,65 +7029,65 @@
         <f t="shared" si="2"/>
         <v>223000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>9477.5425046749897</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>56235.450684809999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <f t="shared" si="7"/>
         <v>189253.46400837001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>13634.589690000001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <f t="shared" si="8"/>
         <v>181000.22997406489</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>51681.514064850002</v>
       </c>
       <c r="R8">
         <v>287.20702947004685</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>43.612056199804094</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <f t="shared" si="3"/>
         <v>287207.02947004687</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8">
         <f t="shared" si="4"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>2024</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8">
         <v>30.935123636363599</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8">
         <v>134.733147399925</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8">
         <f t="shared" si="9"/>
         <v>165.66827103628862</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9">
         <v>270858.80071643699</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>74146.088489999995</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <f t="shared" si="5"/>
         <v>211109</v>
       </c>
@@ -5230,7 +7104,7 @@
       <c r="H9">
         <v>26</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <f t="shared" si="6"/>
         <v>249</v>
       </c>
@@ -5242,65 +7116,65 @@
         <f t="shared" si="2"/>
         <v>249000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>9156.77890338</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>104575.80603822001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <f t="shared" si="7"/>
         <v>293829.27004659001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>28006.32474</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <f t="shared" si="8"/>
         <v>287557.42728977988</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>106557.19731571501</v>
       </c>
       <c r="R9">
         <v>323.3020449772543</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>36.095015507207471</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>323302.04497725429</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>2026</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9">
         <v>37.526330000000002</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9">
         <v>161.821145189253</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9">
         <f t="shared" si="9"/>
         <v>199.347475189253</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>2026</v>
       </c>
       <c r="B10">
         <v>345004.88920643699</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>74146.088489999995</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <f t="shared" si="5"/>
         <v>234109</v>
       </c>
@@ -5311,10 +7185,10 @@
       <c r="F10">
         <v>40</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <f t="shared" si="6"/>
         <v>275</v>
       </c>
@@ -5326,65 +7200,65 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>9156.77890338</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>104575.80603822001</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <f t="shared" si="7"/>
         <v>398405.07608481002</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>28006.32474</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <f t="shared" si="8"/>
         <v>394114.6246054949</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>106557.19731571501</v>
       </c>
       <c r="R10">
         <v>359.39706048446175</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>36.095015507207471</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>359397.06048446172</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>2028</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10">
         <v>45.875010909090904</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10">
         <v>207.33235988875199</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10">
         <f t="shared" si="9"/>
         <v>253.20737079784288</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>2027</v>
       </c>
       <c r="B11">
         <v>402406.19076643698</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>57401.30156</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <f t="shared" si="5"/>
         <v>274109</v>
       </c>
@@ -5395,10 +7269,10 @@
       <c r="F11">
         <v>40</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <f t="shared" si="6"/>
         <v>301</v>
       </c>
@@ -5410,65 +7284,65 @@
         <f t="shared" si="2"/>
         <v>301000</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>16995.842998244902</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>130839.73365497999</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <f t="shared" si="7"/>
         <v>529244.80973979004</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>26628.140380000001</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <f t="shared" si="8"/>
         <v>544768.42380872986</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>150653.79920323499</v>
       </c>
       <c r="R11">
         <v>417.49296937740814</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>58.09590889294639</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <f t="shared" si="3"/>
         <v>417492.96937740815</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11">
         <f t="shared" si="4"/>
         <v>58095.908892946391</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11">
         <v>2030</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11">
         <v>56.131709999999998</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11">
         <v>290.50558331976799</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11">
         <f t="shared" si="9"/>
         <v>346.63729331976799</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>2028</v>
       </c>
       <c r="B12">
         <v>459807.49232643697</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>57401.30156</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <f t="shared" si="5"/>
         <v>314109</v>
       </c>
@@ -5479,10 +7353,10 @@
       <c r="F12">
         <v>40</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>26</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <f t="shared" si="6"/>
         <v>327</v>
       </c>
@@ -5494,65 +7368,65 @@
         <f t="shared" si="2"/>
         <v>327000</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>16995.842998244902</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>130839.73365497999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <f t="shared" si="7"/>
         <v>660084.54339477001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>26628.140380000001</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <f t="shared" si="8"/>
         <v>695422.22301196482</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>150653.79920323499</v>
       </c>
       <c r="R12">
         <v>475.58887827035454</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>58.095908892946397</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>475588.87827035453</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12">
         <f t="shared" si="4"/>
         <v>58095.908892946398</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12">
         <v>2032</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12">
         <v>67.492456363636407</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12">
         <v>403.33153664398401</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12">
         <f t="shared" si="9"/>
         <v>470.8239930076204</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>2029</v>
       </c>
       <c r="B13">
         <v>541005.47883643699</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>81197.986510000002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <f t="shared" si="5"/>
         <v>354109</v>
       </c>
@@ -5563,10 +7437,10 @@
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
@@ -5578,55 +7452,55 @@
         <f t="shared" si="2"/>
         <v>353000</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>4723.5930226999899</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>168637.06570335</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <f t="shared" si="7"/>
         <v>828721.60909812001</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>44459.751210000002</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <f t="shared" si="8"/>
         <v>902924.32108879485</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>207502.09807683001</v>
       </c>
       <c r="R13">
         <v>577.08530381162723</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13">
         <v>101.49642554127267</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>577085.30381162721</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13">
         <v>2034</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13">
         <v>80.480386363636399</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13">
         <v>485.16087153802999</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13">
         <f t="shared" si="9"/>
         <v>565.64125790166645</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -5636,7 +7510,7 @@
       <c r="C14" s="1">
         <v>81197.986510000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <f t="shared" si="5"/>
         <v>394109</v>
       </c>
@@ -5653,7 +7527,7 @@
       <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <f t="shared" si="6"/>
         <v>383</v>
       </c>
@@ -5665,65 +7539,65 @@
         <f t="shared" si="2"/>
         <v>383000</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>4723.5930226999899</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>168637.06570335</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <f t="shared" si="7"/>
         <v>997358.67480147001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>44459.751210000002</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <f t="shared" si="8"/>
         <v>1110426.4191656248</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>207502.09807683001</v>
       </c>
       <c r="R14" s="1">
         <v>678.58172935289986</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14">
         <v>101.49642554127267</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>678581.72935289983</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14">
         <v>2036</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14">
         <v>95.322164545454498</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14">
         <v>524.56542997676604</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14">
         <f t="shared" si="9"/>
         <v>619.88759452222052</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>2031</v>
       </c>
       <c r="B15">
         <v>688215.52712643601</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>66012.061780000004</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <f t="shared" si="5"/>
         <v>434109</v>
       </c>
@@ -5734,10 +7608,10 @@
       <c r="F15">
         <v>68</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>30</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
@@ -5749,65 +7623,65 @@
         <f t="shared" si="2"/>
         <v>413000</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>34173.144328415001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>191914.82389026001</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <f t="shared" si="7"/>
         <v>1189273.49869173</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>12957.18735</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <f t="shared" si="8"/>
         <v>1350270.8254928698</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>239844.406327245</v>
       </c>
       <c r="R15">
         <v>813.87670562615858</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15">
         <v>135.29497627325875</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>813876.70562615863</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15">
         <f t="shared" si="4"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>2038</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15">
         <v>111.444223636364</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15">
         <v>582.11597042682502</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15">
         <f t="shared" si="9"/>
         <v>693.56019406318899</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>2032</v>
       </c>
       <c r="B16">
         <v>754227.58890643599</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>66012.061780000004</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <f t="shared" si="5"/>
         <v>502109</v>
       </c>
@@ -5818,10 +7692,10 @@
       <c r="F16">
         <v>68</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>30</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
@@ -5833,65 +7707,65 @@
         <f t="shared" si="2"/>
         <v>443000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>34173.144328415001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>191914.82389026001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <f t="shared" si="7"/>
         <v>1381188.3225819899</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>12957.18735</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <f t="shared" si="8"/>
         <v>1590115.2318201149</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>239844.406327245</v>
       </c>
       <c r="R16">
         <v>949.17168189941731</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16">
         <v>135.29497627325875</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16">
         <f t="shared" si="3"/>
         <v>949171.68189941731</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>2040</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16">
         <v>127.604308181818</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16">
         <v>593.87906054333405</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16">
         <f t="shared" si="9"/>
         <v>721.4833687251521</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>2033</v>
       </c>
       <c r="B17">
         <v>814163.44412643695</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>59935.855219999998</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <f t="shared" si="5"/>
         <v>570109</v>
       </c>
@@ -5902,10 +7776,10 @@
       <c r="F17">
         <v>68</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>30</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <f t="shared" si="6"/>
         <v>473</v>
       </c>
@@ -5917,65 +7791,65 @@
         <f t="shared" si="2"/>
         <v>473000</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>73232.04575818</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>228720.87846410999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <f t="shared" si="7"/>
         <v>1609909.2010460999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>11610.688529999999</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <f t="shared" si="8"/>
         <v>1904802.1555965438</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>314686.92377642897</v>
       </c>
       <c r="R17">
         <v>1051.7368115073382</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17">
         <v>102.56512960792081</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17">
         <f t="shared" si="3"/>
         <v>1051736.8115073382</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17">
         <f t="shared" si="4"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>2042</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17">
         <v>139.236943636364</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17">
         <v>639.29218521486405</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17">
         <f t="shared" si="9"/>
         <v>778.52912885122805</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>2034</v>
       </c>
       <c r="B18">
         <v>874099.29934643698</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>59935.855219999998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <f t="shared" si="5"/>
         <v>638109</v>
       </c>
@@ -5986,10 +7860,10 @@
       <c r="F18">
         <v>68</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>30</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <f t="shared" si="6"/>
         <v>503</v>
       </c>
@@ -6001,55 +7875,55 @@
         <f t="shared" si="2"/>
         <v>503000</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>73232.04575818</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>228720.87846410999</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18">
         <f t="shared" si="7"/>
         <v>1838630.0795102098</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>11610.688529999999</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <f t="shared" si="8"/>
         <v>2219489.0793729727</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>314686.92377642897</v>
       </c>
       <c r="R18">
         <v>1154.3019411152591</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18">
         <v>102.56512960792081</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18">
         <f t="shared" si="3"/>
         <v>1154301.941115259</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18">
         <f t="shared" si="4"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18">
         <v>2044</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18">
         <v>148.088826363636</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18">
         <v>682.98325261898503</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18">
         <f t="shared" si="9"/>
         <v>831.07207898262106</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -6059,7 +7933,7 @@
       <c r="C19" s="1">
         <v>67039.351509999993</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <f t="shared" si="5"/>
         <v>706109</v>
       </c>
@@ -6076,7 +7950,7 @@
       <c r="H19">
         <v>25</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <f t="shared" si="6"/>
         <v>528</v>
       </c>
@@ -6088,65 +7962,65 @@
         <f t="shared" si="2"/>
         <v>528000</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>61963.949007384901</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>277900.11641790002</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19">
         <f t="shared" si="7"/>
         <v>2116530.1959281098</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>12365.75409</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <f t="shared" si="8"/>
         <v>2600553.9093341376</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>381064.82996116497</v>
       </c>
       <c r="R19" s="1">
         <v>1211.7210407900623</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19">
         <v>57.419099674803256</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>1211721.0407900622</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19">
         <f t="shared" si="4"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19">
         <v>2046</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19">
         <v>155.33214272727301</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19">
         <v>741.40792082883002</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19">
         <f t="shared" si="9"/>
         <v>896.740063556103</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>2036</v>
       </c>
       <c r="B20">
         <v>1008178.00236643</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>67039.351509999993</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <f t="shared" si="5"/>
         <v>774109</v>
       </c>
@@ -6157,10 +8031,10 @@
       <c r="F20">
         <v>78</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>25</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <f t="shared" si="6"/>
         <v>553</v>
       </c>
@@ -6172,65 +8046,65 @@
         <f t="shared" si="2"/>
         <v>553000</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>61963.949007384901</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>277900.11641790002</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <f t="shared" si="7"/>
         <v>2394430.31234601</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>12365.75409</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <f t="shared" si="8"/>
         <v>2981618.7392953024</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>381064.82996116497</v>
       </c>
       <c r="R20">
         <v>1269.1401404648655</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20">
         <v>57.419099674803256</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>1269140.1404648654</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20">
         <f t="shared" si="4"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20">
         <v>2048</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20">
         <v>161.52204727272701</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20">
         <v>823.134117188196</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20">
         <f t="shared" si="9"/>
         <v>984.65616446092304</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>2037</v>
       </c>
       <c r="B21">
         <v>1086731.2902164301</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>78553.287849999993</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <f t="shared" si="5"/>
         <v>852109</v>
       </c>
@@ -6241,10 +8115,10 @@
       <c r="F21">
         <v>78</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>25</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <f t="shared" si="6"/>
         <v>578</v>
       </c>
@@ -6256,65 +8130,65 @@
         <f t="shared" si="2"/>
         <v>578000</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>81314.849570864899</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>294943.91562346398</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21">
         <f t="shared" si="7"/>
         <v>2689374.2279694742</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>21040.88463</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <f t="shared" si="8"/>
         <v>3406059.1845434522</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>424440.44524814998</v>
       </c>
       <c r="R21">
         <v>1347.807612912181</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21">
         <v>78.667472447315561</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21">
         <f t="shared" si="3"/>
         <v>1347807.6129121811</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>78667.472447315566</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21">
         <v>2050</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21">
         <v>167.21188818181801</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21">
         <v>907.75283817318802</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21">
         <f t="shared" si="9"/>
         <v>1074.964726355006</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>2038</v>
       </c>
       <c r="B22">
         <v>1165284.5780664301</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>78553.287849999993</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <f t="shared" si="5"/>
         <v>930109</v>
       </c>
@@ -6325,10 +8199,10 @@
       <c r="F22">
         <v>78</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>25</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
@@ -6340,52 +8214,52 @@
         <f t="shared" si="2"/>
         <v>603000</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>81314.849570864899</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>294943.91562346398</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <f t="shared" si="7"/>
         <v>2984318.1435929383</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>21040.88463</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <f t="shared" si="8"/>
         <v>3830499.629791602</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>424440.44524814998</v>
       </c>
       <c r="R22">
         <v>1426.4750853594965</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22">
         <v>78.667472447315561</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>1426475.0853594965</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>78667.472447315566</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>2039</v>
       </c>
       <c r="B23">
         <v>1252711.47280643</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>87426.894740000003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <f t="shared" si="5"/>
         <v>1008109</v>
       </c>
@@ -6396,10 +8270,10 @@
       <c r="F23">
         <v>78</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>25</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
@@ -6411,52 +8285,52 @@
         <f t="shared" si="2"/>
         <v>628000</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>49200.342204749897</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23">
         <v>297685.38764140499</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23">
         <f t="shared" si="7"/>
         <v>3282003.5312343435</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23">
         <v>20625.094010000001</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23">
         <f t="shared" si="8"/>
         <v>4261851.9005532423</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23">
         <v>431352.27076163999</v>
       </c>
       <c r="R23">
         <v>1454.5829789882384</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23">
         <v>28.107893628741969</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>1454582.9789882384</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>28107.893628741971</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>2040</v>
       </c>
       <c r="B24">
         <v>1340138.3675464301</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>87426.894740000003</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <f t="shared" si="5"/>
         <v>1086109</v>
       </c>
@@ -6473,7 +8347,7 @@
       <c r="H24">
         <v>33</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
@@ -6485,52 +8359,52 @@
         <f t="shared" si="2"/>
         <v>661000</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>49200.342204749897</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>297685.38764140499</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24">
         <f t="shared" si="7"/>
         <v>3579688.9188757483</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>20625.094010000001</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <f t="shared" si="8"/>
         <v>4693204.1713148821</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>431352.27076163999</v>
       </c>
       <c r="R24">
         <v>1482.6908726169804</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24">
         <v>28.107893628741969</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24">
         <f t="shared" si="3"/>
         <v>1482690.8726169805</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24">
         <f t="shared" si="4"/>
         <v>28107.893628741971</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>2041</v>
       </c>
       <c r="B25">
         <v>1366396.6688664299</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>26258.301319999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <f t="shared" si="5"/>
         <v>1164109</v>
       </c>
@@ -6541,10 +8415,10 @@
       <c r="F25">
         <v>99</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>33</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <f t="shared" si="6"/>
         <v>694</v>
       </c>
@@ -6556,52 +8430,52 @@
         <f t="shared" si="2"/>
         <v>694000</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>100734.892095405</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>300199.67590162501</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <f t="shared" si="7"/>
         <v>3879888.5947773731</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>18778.534319999999</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <f t="shared" si="8"/>
         <v>5148890.9805081869</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>455686.80919330497</v>
       </c>
       <c r="R25">
         <v>1543.7488895290217</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25">
         <v>61.058016912041161</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25">
         <f t="shared" si="3"/>
         <v>1543748.8895290217</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25">
         <f t="shared" si="4"/>
         <v>61058.016912041159</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>2042</v>
       </c>
       <c r="B26">
         <v>1392654.97018643</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>26258.301319999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <f t="shared" si="5"/>
         <v>1263109</v>
       </c>
@@ -6612,10 +8486,10 @@
       <c r="F26">
         <v>99</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>33</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <f t="shared" si="6"/>
         <v>727</v>
       </c>
@@ -6627,52 +8501,52 @@
         <f t="shared" si="2"/>
         <v>727000</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>100734.892095405</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26">
         <v>300199.67590162501</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26">
         <f t="shared" si="7"/>
         <v>4180088.270678998</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26">
         <v>18778.534319999999</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <f t="shared" si="8"/>
         <v>5604577.7897014916</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>455686.80919330497</v>
       </c>
       <c r="R26">
         <v>1604.8069064410629</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26">
         <v>61.058016912041161</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>1604806.9064410629</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26">
         <f t="shared" si="4"/>
         <v>61058.016912041159</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>2043</v>
       </c>
       <c r="B27">
         <v>1416251.69914643</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>23596.72896</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <f t="shared" si="5"/>
         <v>1362109</v>
       </c>
@@ -6683,10 +8557,10 @@
       <c r="F27">
         <v>99</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>33</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <f t="shared" si="6"/>
         <v>760</v>
       </c>
@@ -6698,52 +8572,52 @@
         <f t="shared" si="2"/>
         <v>760000</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>89886.844265459993</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <v>304181.48045198998</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27">
         <f t="shared" si="7"/>
         <v>4484269.7511309879</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27">
         <v>34424.36131</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <f t="shared" si="8"/>
         <v>6089038.5438443366</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>484460.75414284499</v>
       </c>
       <c r="R27">
         <v>1661.362046272616</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27">
         <v>56.555139831553007</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>1661362.0462726159</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27">
         <f t="shared" si="4"/>
         <v>56555.13983155301</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>2044</v>
       </c>
       <c r="B28">
         <v>1439848.42810643</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>23596.72896</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <f t="shared" si="5"/>
         <v>1461109</v>
       </c>
@@ -6754,10 +8628,10 @@
       <c r="F28">
         <v>99</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
         <v>33</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28">
         <f t="shared" si="6"/>
         <v>793</v>
       </c>
@@ -6769,52 +8643,52 @@
         <f t="shared" si="2"/>
         <v>793000</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>89886.844265459993</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28">
         <v>304181.48045198998</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28">
         <f t="shared" si="7"/>
         <v>4788451.2315829778</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28">
         <v>34424.36131</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <f t="shared" si="8"/>
         <v>6573499.2979871817</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28">
         <v>484460.75414284499</v>
       </c>
       <c r="R28">
         <v>1717.9171861041691</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28">
         <v>56.555139831553007</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>1717917.1861041691</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28">
         <f t="shared" si="4"/>
         <v>56555.13983155301</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>2045</v>
       </c>
       <c r="B29">
         <v>1469462.4214564301</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>29613.993350000001</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <f t="shared" si="5"/>
         <v>1560109</v>
       </c>
@@ -6831,7 +8705,7 @@
       <c r="H29">
         <v>50</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <f t="shared" si="6"/>
         <v>843</v>
       </c>
@@ -6843,52 +8717,52 @@
         <f t="shared" si="2"/>
         <v>843000</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>59996.065785355</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29">
         <v>315180.67400555999</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29">
         <f t="shared" si="7"/>
         <v>5103631.9055885375</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29">
         <v>26837.67265</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <f t="shared" si="8"/>
         <v>7105736.1367895212</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>532236.83880233904</v>
       </c>
       <c r="R29">
         <v>1789.2489452760483</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29">
         <v>71.331759171879298</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>1789248.9452760483</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29">
         <f t="shared" si="4"/>
         <v>71331.759171879297</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>2046</v>
       </c>
       <c r="B30">
         <v>1499076.41480643</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>29613.993350000001</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <f t="shared" si="5"/>
         <v>1659109</v>
       </c>
@@ -6899,10 +8773,10 @@
       <c r="F30">
         <v>169</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
         <v>50</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30">
         <f t="shared" si="6"/>
         <v>893</v>
       </c>
@@ -6914,52 +8788,52 @@
         <f t="shared" si="2"/>
         <v>893000</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>59996.065785355</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30">
         <v>315180.67400555999</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30">
         <f t="shared" si="7"/>
         <v>5418812.5795940971</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30">
         <v>26837.67265</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <f t="shared" si="8"/>
         <v>7637972.9755918607</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30">
         <v>532236.83880233904</v>
       </c>
       <c r="R30">
         <v>1860.5807044479275</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30">
         <v>71.331759171879298</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>1860580.7044479274</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30">
         <f t="shared" si="4"/>
         <v>71331.759171879297</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>2047</v>
       </c>
       <c r="B31">
         <v>1534280.0419364299</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>35203.627130000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31">
         <f t="shared" si="5"/>
         <v>1828109</v>
       </c>
@@ -6970,10 +8844,10 @@
       <c r="F31">
         <v>169</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31">
         <v>50</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31">
         <f t="shared" si="6"/>
         <v>943</v>
       </c>
@@ -6985,52 +8859,52 @@
         <f t="shared" si="2"/>
         <v>943000</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>13613.503684884899</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31">
         <v>348105.27423733397</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31">
         <f t="shared" si="7"/>
         <v>5766917.8538314309</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31">
         <v>42306.236149999997</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31">
         <f t="shared" si="8"/>
         <v>8195393.6618720805</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31">
         <v>557420.68628022005</v>
       </c>
       <c r="R31">
         <v>1956.6757121750263</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31">
         <v>96.095007727098903</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>1956675.7121750263</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>96095.007727098899</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>2048</v>
       </c>
       <c r="B32">
         <v>1569483.6690664301</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>35203.627130000001</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <f t="shared" si="5"/>
         <v>1997109</v>
       </c>
@@ -7041,10 +8915,10 @@
       <c r="F32">
         <v>169</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32">
         <v>50</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32">
         <f t="shared" si="6"/>
         <v>993</v>
       </c>
@@ -7056,52 +8930,52 @@
         <f t="shared" si="2"/>
         <v>993000</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>13613.503684884899</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32">
         <v>348105.27423733397</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32">
         <f t="shared" si="7"/>
         <v>6115023.1280687647</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <v>42306.236149999997</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <f t="shared" si="8"/>
         <v>8752814.3481523003</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32">
         <v>557420.68628022005</v>
       </c>
       <c r="R32">
         <v>2052.7707199021252</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32">
         <v>96.095007727098903</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>2052770.7199021252</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32">
         <f t="shared" si="4"/>
         <v>96095.007727098899</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>2049</v>
       </c>
       <c r="B33">
         <v>1620517.42510643</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>51033.75604</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33">
         <f t="shared" si="5"/>
         <v>2166109</v>
       </c>
@@ -7112,10 +8986,10 @@
       <c r="F33">
         <v>169</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33">
         <f t="shared" si="6"/>
         <v>1043</v>
       </c>
@@ -7127,42 +9001,42 @@
         <f t="shared" si="2"/>
         <v>1043000</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>36887.263406979997</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <v>358802.79033668898</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33">
         <f t="shared" si="7"/>
         <v>6473825.9184054537</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33">
         <v>29545.326880000001</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33">
         <f t="shared" si="8"/>
         <v>9349738.8529281411</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33">
         <v>596924.50477583997</v>
       </c>
       <c r="R33">
         <v>2151.5944078405414</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33">
         <v>98.823687938416271</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33">
         <f t="shared" si="3"/>
         <v>2151594.4078405416</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33">
         <f t="shared" si="4"/>
         <v>98823.687938416275</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>2050</v>
       </c>
@@ -7186,10 +9060,10 @@
       <c r="G34" s="1">
         <v>1045</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
         <v>50</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34">
         <f t="shared" si="6"/>
         <v>1093</v>
       </c>
@@ -7201,42 +9075,42 @@
         <f t="shared" si="2"/>
         <v>1093000</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>36887.263406979997</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <v>358802.79033668898</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34">
         <f t="shared" si="7"/>
         <v>6832628.7087421427</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34">
         <v>29545.326880000001</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <f t="shared" si="8"/>
         <v>9946663.3577039819</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="5">
         <v>596924.50477583997</v>
       </c>
       <c r="R34" s="1">
         <v>2250.4180957789576</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34">
         <v>98.823687938416271</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>2250418.0957789575</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>98823.687938416275</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>2051</v>
       </c>
@@ -7244,16 +9118,15 @@
         <f>B34/1000</f>
         <v>1671.5511811464301</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>44331.142776660003</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35">
         <f>N34/1000</f>
         <v>6832.6287087421424</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>2052</v>
       </c>
@@ -7261,266 +9134,264 @@
         <f>B35/1.2</f>
         <v>1392.9593176220251</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>44331.142776660003</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>2053</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>71991.796050289995</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>2054</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>71991.796050289995</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>2055</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>42648.336863960001</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>2056</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>42648.336863960001</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>2057</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>69993.457237224895</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21">
       <c r="A42">
         <v>2058</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>69993.457237224895</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21">
       <c r="A43">
         <v>2059</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21">
       <c r="A44">
         <v>2060</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21">
       <c r="A45">
         <v>2061</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>2062</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21">
       <c r="A47">
         <v>2063</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>2064</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>2065</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>2066</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>2067</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>2068</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>2069</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>2070</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>2071</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>2072</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>2073</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>2074</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>2075</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>2076</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>2077</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>2078</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>2079</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>2080</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>2081</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>2082</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>2083</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>2084</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>2085</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>2086</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>2087</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>2088</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>2089</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>2090</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>2091</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>2092</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>2093</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>2094</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>2095</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>2096</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>2097</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>2098</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>2099</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>2100</v>
       </c>
@@ -7543,14 +9414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B749E6-E878-4161-8BD8-61B2A1558660}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:E1"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -7561,43 +9431,42 @@
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="15"/>
       <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="F2"/>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <f>AVERAGE(I4:I34)</f>
         <v>627.74193548387098</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -7625,7 +9494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -7649,8 +9518,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2021</v>
       </c>
       <c r="D5">
@@ -7667,187 +9536,187 @@
         <f>G4+(F5/1000)</f>
         <v>284.15199999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2022</v>
       </c>
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <f t="shared" ref="E6:E34" si="0">D6-D5</f>
         <v>0.20000000000000007</v>
       </c>
       <c r="F6">
         <v>155879</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <f t="shared" ref="G6:G34" si="1">G5+(F6/1000)</f>
         <v>440.03099999999995</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2023</v>
       </c>
       <c r="D7">
         <v>1.4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="F7">
         <v>141382.54680934962</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>581.41354680934955</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024</v>
       </c>
       <c r="D8">
         <v>1.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="F8">
         <v>147251.42869952685</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>728.66497550887641</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2025</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="F9">
         <v>162862.24278937737</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>891.52721829825373</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2026</v>
       </c>
       <c r="D10">
         <v>2.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="F10">
         <v>145835.01963657344</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>1037.3622379348271</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2027</v>
       </c>
       <c r="D11">
         <v>2.7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="F11">
         <v>165666.48744490833</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>1203.0287253797355</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2028</v>
       </c>
       <c r="D12">
         <v>3.2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F12">
         <v>186579.061847745</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>1389.6077872274805</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2029</v>
       </c>
       <c r="D13">
         <v>3.7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F13">
         <v>199036.61585171428</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>1588.6444030791947</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -7860,14 +9729,14 @@
       <c r="D14">
         <v>4.2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F14">
         <v>207800.02778636164</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>1796.4444308655563</v>
       </c>
@@ -7875,8 +9744,8 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2031</v>
       </c>
       <c r="B15">
@@ -7885,226 +9754,226 @@
       <c r="D15">
         <v>4.8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="F15">
         <v>196078.16001564902</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>1992.5225908812054</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2032</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>600</v>
       </c>
       <c r="D16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="F16">
         <v>226191.96664637764</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>2218.7145575275831</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>710</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2033</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>600</v>
       </c>
       <c r="D17">
         <v>5.7</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>0.60000000000000053</v>
       </c>
       <c r="F17">
         <v>244860.60623351514</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>2463.5751637610983</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2034</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>600</v>
       </c>
       <c r="D18">
         <v>6.2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F18">
         <v>265778.65166935237</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>2729.3538154304506</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>600</v>
       </c>
       <c r="D19">
         <v>6.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="F19">
         <v>261127.5157586055</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>2990.4813311890562</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2036</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>600</v>
       </c>
       <c r="D20">
         <v>6.9</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="F20">
         <v>289313.79060694366</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>3279.7951217959999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>710</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2037</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>600</v>
       </c>
       <c r="D21">
         <v>7.3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="F21">
         <v>267295.24012974481</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>3547.0903619257447</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2038</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>600</v>
       </c>
       <c r="D22">
         <v>7.5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="F22">
         <v>297064.025472056</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>3844.1543873978007</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2039</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>600</v>
       </c>
       <c r="D23">
         <v>7.8</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="F23">
         <v>277844.317197319</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>4121.9987045951202</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23">
         <v>710</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2040</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>600</v>
       </c>
       <c r="C24">
@@ -8113,247 +9982,247 @@
       <c r="D24">
         <v>8.1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="F24">
         <v>317615.2925588396</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>4439.6139971539596</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2041</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>600</v>
       </c>
       <c r="D25">
         <v>8.5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="F25">
         <v>290161.79689446598</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>4729.7757940484253</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2042</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>600</v>
       </c>
       <c r="D26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="F26">
         <v>288085.59265960293</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>5017.8613867080285</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <v>710</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2043</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>600</v>
       </c>
       <c r="D27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="F27">
         <v>290678.17843992484</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>5308.539565147953</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <v>710</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2044</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>600</v>
       </c>
       <c r="D28">
         <v>9.5</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="F28">
         <v>262357.43861188099</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>5570.8970037598338</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28">
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2045</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>600</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F29">
         <v>322479.15489970613</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>5893.3761586595401</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <v>710</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2046</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>600</v>
       </c>
       <c r="D30">
         <v>10.199999999999999</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="F30">
         <v>299680.69046848523</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>6193.0568491280255</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30">
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2047</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>600</v>
       </c>
       <c r="D31">
         <v>10.8</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="F31">
         <v>336708.39501946408</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>6529.7652441474893</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31">
         <v>710</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2048</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>600</v>
       </c>
       <c r="D32">
         <v>11.2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="F32">
         <v>286159.78100522817</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>6815.9250251527174</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32">
         <v>710</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2049</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>600</v>
       </c>
       <c r="D33">
         <v>11.8</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="F33">
         <v>263731.96626345464</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>7079.6569914161719</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33">
         <v>710</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>2050</v>
       </c>
@@ -8366,271 +10235,271 @@
       <c r="D34">
         <v>12.5</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="F34">
         <v>267733.60125753697</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>7347.3905926737089</v>
       </c>
       <c r="H34">
         <v>20000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34">
         <v>710</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2051</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2052</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2053</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2054</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2055</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2056</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2057</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2058</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2059</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2060</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2061</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2062</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2063</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2064</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+    <row r="49" spans="1:1">
+      <c r="A49">
         <v>2065</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+    <row r="50" spans="1:1">
+      <c r="A50">
         <v>2066</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+    <row r="51" spans="1:1">
+      <c r="A51">
         <v>2067</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+    <row r="52" spans="1:1">
+      <c r="A52">
         <v>2068</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+    <row r="53" spans="1:1">
+      <c r="A53">
         <v>2069</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+    <row r="54" spans="1:1">
+      <c r="A54">
         <v>2070</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+    <row r="55" spans="1:1">
+      <c r="A55">
         <v>2071</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+    <row r="56" spans="1:1">
+      <c r="A56">
         <v>2072</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+    <row r="57" spans="1:1">
+      <c r="A57">
         <v>2073</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+    <row r="58" spans="1:1">
+      <c r="A58">
         <v>2074</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+    <row r="59" spans="1:1">
+      <c r="A59">
         <v>2075</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+    <row r="60" spans="1:1">
+      <c r="A60">
         <v>2076</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+    <row r="61" spans="1:1">
+      <c r="A61">
         <v>2077</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+    <row r="62" spans="1:1">
+      <c r="A62">
         <v>2078</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+    <row r="63" spans="1:1">
+      <c r="A63">
         <v>2079</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+    <row r="64" spans="1:1">
+      <c r="A64">
         <v>2080</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+    <row r="65" spans="1:1">
+      <c r="A65">
         <v>2081</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+    <row r="66" spans="1:1">
+      <c r="A66">
         <v>2082</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+    <row r="67" spans="1:1">
+      <c r="A67">
         <v>2083</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+    <row r="68" spans="1:1">
+      <c r="A68">
         <v>2084</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+    <row r="69" spans="1:1">
+      <c r="A69">
         <v>2085</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+    <row r="70" spans="1:1">
+      <c r="A70">
         <v>2086</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+    <row r="71" spans="1:1">
+      <c r="A71">
         <v>2087</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+    <row r="72" spans="1:1">
+      <c r="A72">
         <v>2088</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+    <row r="73" spans="1:1">
+      <c r="A73">
         <v>2089</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
+    <row r="74" spans="1:1">
+      <c r="A74">
         <v>2090</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
+    <row r="75" spans="1:1">
+      <c r="A75">
         <v>2091</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
+    <row r="76" spans="1:1">
+      <c r="A76">
         <v>2092</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
+    <row r="77" spans="1:1">
+      <c r="A77">
         <v>2093</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
+    <row r="78" spans="1:1">
+      <c r="A78">
         <v>2094</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
+    <row r="79" spans="1:1">
+      <c r="A79">
         <v>2095</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
+    <row r="80" spans="1:1">
+      <c r="A80">
         <v>2096</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
+    <row r="81" spans="1:1">
+      <c r="A81">
         <v>2097</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
+    <row r="82" spans="1:1">
+      <c r="A82">
         <v>2098</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
+    <row r="83" spans="1:1">
+      <c r="A83">
         <v>2099</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
+    <row r="84" spans="1:1">
+      <c r="A84">
         <v>2100</v>
       </c>
     </row>
@@ -8642,4 +10511,111 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137580ED-C83E-47BE-992D-E9B23297BB0E}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="8">
+        <v>2000.0848697413501</v>
+      </c>
+      <c r="B2" s="8">
+        <v>15.3316953316953</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2000.2358534801201</v>
+      </c>
+      <c r="H2" s="8">
+        <v>82.162162162162105</v>
+      </c>
+      <c r="L2">
+        <v>2050</v>
+      </c>
+      <c r="M2">
+        <f>50*1000000</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8">
+        <v>2019.73455933379</v>
+      </c>
+      <c r="B3" s="8">
+        <v>26.732186732186701</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2018.9179811317199</v>
+      </c>
+      <c r="H3" s="8">
+        <v>115.970515970515</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3">
+        <v>2100</v>
+      </c>
+      <c r="M3" s="9">
+        <f>1.532*(L3-L2)+M2</f>
+        <v>50000076.600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8">
+        <v>2049.3986439597102</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45.995085995085901</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2049.80845696494</v>
+      </c>
+      <c r="H4" s="8">
+        <v>158.82063882063801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="G5" s="8">
+        <v>2023.5886302680101</v>
+      </c>
+      <c r="H5" s="8">
+        <v>124.226044226044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="N7" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/LiteratureInstallationProjections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D74F20-CAAD-43F3-BDB3-EBF634516BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C8FDED-0125-441E-8183-7DDEFA2391D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5DE1FCD1-9D64-4446-91DA-0961A3088D24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -166,6 +166,27 @@
   <si>
     <t>PWhr/yr</t>
   </si>
+  <si>
+    <t>https://ember-climate.org/data/data-explorer/</t>
+  </si>
+  <si>
+    <t>World Installed Capacity by source, total absolute GW</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Linear Projected Increase</t>
+  </si>
+  <si>
+    <t>MW cumulative</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +236,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -269,7 +299,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,9 +315,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -302,6 +329,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="%" xfId="2" xr:uid="{81452E6B-F638-4287-8B73-D95A6C474FC8}"/>
@@ -3810,6 +3841,326 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="80"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10353002024237344"/>
+                  <c:y val="-7.9822249941529588E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2050to2100Estimates'!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3123.5871032069999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7729.2653366454897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C59-4E4F-AEB0-1E940F1F3075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515381152"/>
+        <c:axId val="515381480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515381152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515381480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515381480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515381152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3970,6 +4321,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5519,6 +5910,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6158,7 +7065,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -6180,6 +7087,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9208236B-D889-0796-CF60-50A84FD69CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6517,42 +7460,42 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="12" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -9435,18 +10378,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="14"/>
       <c r="H1" t="s">
         <v>28</v>
       </c>
@@ -10515,18 +11458,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137580ED-C83E-47BE-992D-E9B23297BB0E}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -10539,8 +11483,19 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="J1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8">
         <v>2000.0848697413501</v>
       </c>
@@ -10553,15 +11508,27 @@
       <c r="H2" s="8">
         <v>82.162162162162105</v>
       </c>
-      <c r="L2">
+      <c r="J2" s="15">
         <v>2050</v>
       </c>
-      <c r="M2">
+      <c r="K2" s="15">
         <f>50*1000000</f>
         <v>50000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2">
+        <v>3123.5871032069999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="8">
         <v>2019.73455933379</v>
       </c>
@@ -10580,15 +11547,30 @@
       <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="L3">
+      <c r="J3" s="15">
         <v>2100</v>
       </c>
-      <c r="M3" s="9">
-        <f>1.532*(L3-L2)+M2</f>
-        <v>50000076.600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="16">
+        <f>219.32*1000*(J3-J2)+K2</f>
+        <v>60966000</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3">
+        <v>2021</v>
+      </c>
+      <c r="N3">
+        <v>7729.2653366454897</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="8">
         <v>2049.3986439597102</v>
       </c>
@@ -10602,7 +11584,7 @@
         <v>158.82063882063801</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="G5" s="8">
         <v>2023.5886302680101</v>
       </c>
@@ -10610,8 +11592,8 @@
         <v>124.226044226044</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="N7" s="10"/>
+    <row r="7" spans="1:16">
+      <c r="L7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
